--- a/biology/Botanique/Vivianiaceae/Vivianiaceae.xlsx
+++ b/biology/Botanique/Vivianiaceae/Vivianiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Vivianiaceae est une famille de plantes dicotylédones qui comprend une trentaine d'espèces en 2 à 3 genres.
 Ce sont des plantes herbacées ou des arbustes d'Amérique du Sud. 
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Viviania donné en hommage à Domenico Viviani (1772-1840), 
-médecin et botaniste italien, professeur à Gênes et fondateur du jardin botanique, considéré comme le premier naturaliste ligure[1].
+médecin et botaniste italien, professeur à Gênes et fondateur du jardin botanique, considéré comme le premier naturaliste ligure.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] ce taxon est inexistant.
-La classification phylogénétique APG III (2009)[3] inclut dans cette famille les genres précédemment placés dans la famille Ledocarpaceae à savoir les Balbisia (cs), Rhynchotheca (es), Wendtia.
-En classification phylogénétique APG IV (2016)[4] les Vivianiaceae sont inclus dans les Francoaceae[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) ce taxon est inexistant.
+La classification phylogénétique APG III (2009) inclut dans cette famille les genres précédemment placés dans la famille Ledocarpaceae à savoir les Balbisia (cs), Rhynchotheca (es), Wendtia.
+En classification phylogénétique APG IV (2016) les Vivianiaceae sont inclus dans les Francoaceae.
 </t>
         </is>
       </c>
@@ -577,18 +593,20 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (31 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (31 mai 2010) :
 genre Viviania
 genre Wendtia (attention Angiosperm Phylogeny Website place Wendtia aussi dans Ledocarpaceae)
 (Balbisia, Rhynchotheca et Wendtia sont placés par Angiosperm Phylogeny Website dans Ledocarpaceae comme en APGII)
-Selon NCBI  (31 mai 2010)[7] (Plus conforme à APGIII puisqu'il incorpore les genres Balbisia et Wendtia anciennement dans Ledocarpaceae):
+Selon NCBI  (31 mai 2010) (Plus conforme à APGIII puisqu'il incorpore les genres Balbisia et Wendtia anciennement dans Ledocarpaceae):
 genre Balbisia
 genre Viviania
 genre Wendtia
-(NCBI  (31 mai 2010)[7] ne reconnait pas Rhynchotheca)
-Selon DELTA Angio           (31 mai 2010)[8] :
+(NCBI  (31 mai 2010) ne reconnait pas Rhynchotheca)
+Selon DELTA Angio           (31 mai 2010) :
 genre Rhynchotheca
 genre Viviania</t>
         </is>
@@ -618,9 +636,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (31 mai 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (31 mai 2010) :
 genre Balbisia
 Balbisia microphylla
 genre Viviania
